--- a/biology/Botanique/Parc_Duden/Parc_Duden.xlsx
+++ b/biology/Botanique/Parc_Duden/Parc_Duden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Duden (Dudenpark en néerlandais) est un parc bruxellois d’environ 24 hectares, situé dans la commune de Forest, sur le flanc droit de la vallée de la Senne au sud du parc de Forest. Son relief est varié, son point le plus élevé est à 90 m d'altitude et son point le plus bas à 55 m. On peut y apercevoir un panorama urbain du centre de la capitale belge.
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par le passé, le parc Duden fut nommé Kruysbosch et fit partie du Heegdebos, une ramification de la forêt de Soignes.
-Jusqu'à la fin du xviiie siècle, il appartenait à l'abbaye de Forest. En 1829, après avoir été nationalisé, le bien fut vendu par la Société Générale au banquier Edouard Mosselman, qui fit également l'acquisition du bois de la Cambre. En 1823, ce dernier y fit ériger une villa de style néoclassique et tracer des allées. Ensuite, il céda la propriété à Guillaume Duden, négociant allemand, qui fit ériger un nouveau château et la légua au Roi Léopold II, en 1900, avec la condition qu'elle devienne un parc public[1].
+Jusqu'à la fin du xviiie siècle, il appartenait à l'abbaye de Forest. En 1829, après avoir été nationalisé, le bien fut vendu par la Société Générale au banquier Edouard Mosselman, qui fit également l'acquisition du bois de la Cambre. En 1823, ce dernier y fit ériger une villa de style néoclassique et tracer des allées. Ensuite, il céda la propriété à Guillaume Duden, négociant allemand, qui fit ériger un nouveau château et la légua au Roi Léopold II, en 1900, avec la condition qu'elle devienne un parc public.
 De 1912 à 2006, le parc fut géré par la Donation royale qui, par la suite, céda cette tâche à l'IBGE.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, les 15 arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
 </t>
@@ -578,7 +594,9 @@
           <t>Accessibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce site est desservi par la station de prémétro Albert.
 </t>
